--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F07805-FF8F-4EA4-B56D-1EC2931D9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{94F07805-FF8F-4EA4-B56D-1EC2931D9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86BEB7E4-ED05-410F-A716-7415DA04868C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -80,7 +80,7 @@
     <t>13/8/2024 17:00:00</t>
   </si>
   <si>
-    <t>MD Ghazanfar Alam</t>
+    <t>MD Ghazanfar Al</t>
   </si>
   <si>
     <t>1..GCP Associate Engineering</t>
@@ -92,7 +92,7 @@
     <t>The GCP Associate Engineering course prepares candidates for the GCP Associate Cloud Engineer certification, teaching essential skills for deploying applications, monitoring operations, and managing enterprise solutions using GCP tools such as Compute Engine, Kubernetes, and Cloud Storage.</t>
   </si>
   <si>
-    <t>Pritom Rahaman</t>
+    <t>Pritom Rahan</t>
   </si>
   <si>
     <t>1. GEN AI 
@@ -109,6 +109,269 @@
   </si>
   <si>
     <t>13/8/2024  15:30:00</t>
+  </si>
+  <si>
+    <t>Terry Morgan</t>
+  </si>
+  <si>
+    <t>1. Iterate granular convergence
+2. Scale holistic technologies
+3. Facilitate compelling users
+4. Architect dot-com relationships
+5. Mesh interactive deliverables</t>
+  </si>
+  <si>
+    <t>Terry shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Advanced zero-defect customer loyalty and Focused even-keeled functionalities.</t>
+  </si>
+  <si>
+    <t>Janet Rogers</t>
+  </si>
+  <si>
+    <t>1. Embrace killer synergies
+2. Integrate distributed e-markets
+3. Integrate impactful applications
+4. Redefine best-of-breed channels
+5. Maximize magnetic web-readiness</t>
+  </si>
+  <si>
+    <t>Janet has shown great improvement but needs to focus on timely completion of tasks.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Up-sized fault-tolerant success and Distributed clear-thinking attitude.</t>
+  </si>
+  <si>
+    <t>Santha Sanders</t>
+  </si>
+  <si>
+    <t>1. Mesh dynic communities</t>
+  </si>
+  <si>
+    <t>Santha needs to improve time management and stay focused on deadlines.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Down-sized 3rdgeneration utilization and Organic intangible function.</t>
+  </si>
+  <si>
+    <t>Christopher Riley</t>
+  </si>
+  <si>
+    <t>1. Visualize clicks-and-mortar bandwidth</t>
+  </si>
+  <si>
+    <t>Christopher needs to improve time management and stay focused on deadlines.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Re-contextualized clear-thinking throughput and Balanced real-time functionalities.</t>
+  </si>
+  <si>
+    <t>Erin Sanders</t>
+  </si>
+  <si>
+    <t>1. Maximize extensible experiences</t>
+  </si>
+  <si>
+    <t>Erin consistently delivers quality work. Keep it up!</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Strelined encompassing flexibility and User-friendly web-enabled instruction set.</t>
+  </si>
+  <si>
+    <t>Santha Martin</t>
+  </si>
+  <si>
+    <t>1. Streline innovative experiences</t>
+  </si>
+  <si>
+    <t>Santha has shown great improvement but needs to focus on timely completion of tasks.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Centralized upward-trending functionalities and Distributed next generation circuit.</t>
+  </si>
+  <si>
+    <t>Robert Conway</t>
+  </si>
+  <si>
+    <t>1. Deliver user-centric functionalities
+2. Unleash strategic portals
+3. Transform bricks-and-clicks bandwidth
+4. Envisioneer revolutionary partnerships
+5. Scale best-of-breed web-readiness</t>
+  </si>
+  <si>
+    <t>Robert has shown great improvement but needs to focus on timely completion of tasks.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Secured multi-state superstructure and Profit-focused high-level neural-net.</t>
+  </si>
+  <si>
+    <t>Christopher Smith</t>
+  </si>
+  <si>
+    <t>1. Revolutionize seless markets
+2. Morph enterprise web-readiness
+3. Strategize e-business supply-chains
+4. Seize seless users</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Persevering multi-tasking project and Distributed explicit extranet.</t>
+  </si>
+  <si>
+    <t>Martha Sellers</t>
+  </si>
+  <si>
+    <t>1. Deliver cutting-edge users
+2. Envisioneer bricks-and-clicks infrastructures</t>
+  </si>
+  <si>
+    <t>Martha consistently delivers quality work. Keep it up!</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Assimilated 4thgeneration hub and Profit-focused value-added forecast.</t>
+  </si>
+  <si>
+    <t>Patricia Martinez</t>
+  </si>
+  <si>
+    <t>1. Expedite open-source e-commerce
+2. Integrate bleeding-edge web services
+3. Re-intermediate open-source portals
+4. Facilitate customized synergies
+5. Harness turn-key partnerships</t>
+  </si>
+  <si>
+    <t>Patricia needs to improve time management and stay focused on deadlines.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Proactive reciprocal throughput and Progrmable well-modulated contingency.</t>
+  </si>
+  <si>
+    <t>Alexandra Chapman</t>
+  </si>
+  <si>
+    <t>1. Engineer synergistic relationships
+2. Visualize distributed mindshare
+3. Whiteboard leading-edge web-readiness
+4. Maximize plug-and-play e-markets</t>
+  </si>
+  <si>
+    <t>Alexandra shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Compatible static encoding and Reactive 24/7 matrices.</t>
+  </si>
+  <si>
+    <t>Jimmy Holmes</t>
+  </si>
+  <si>
+    <t>1. Engineer granular functionalities
+2. Unleash real-time mindshare
+3. Redefine efficient markets</t>
+  </si>
+  <si>
+    <t>Jimmy shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Exclusive needs-based solution and Optional tertiary functionalities.</t>
+  </si>
+  <si>
+    <t>Dylan Shaffer</t>
+  </si>
+  <si>
+    <t>1. Matrix back-end roi
+2. Repurpose dot-com relationships
+3. Integrate impactful e-markets
+4. Utilize bleeding-edge vortals</t>
+  </si>
+  <si>
+    <t>Dylan shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Innovative bottom-line function and Innovative needs-based flexibility.</t>
+  </si>
+  <si>
+    <t>Lisa Morales</t>
+  </si>
+  <si>
+    <t>1. Evolve front-end info-mediaries</t>
+  </si>
+  <si>
+    <t>Lisa shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Integrated 4thgeneration leverage and Face-to-face explicit support.</t>
+  </si>
+  <si>
+    <t>Jeffrey Burton</t>
+  </si>
+  <si>
+    <t>1. Maximize extensible content
+2. Deploy open-source convergence
+3. Monetize granular interfaces</t>
+  </si>
+  <si>
+    <t>Jeffrey consistently delivers quality work. Keep it up!</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Assimilated 24/7 superstructure and Operative demand-driven support.</t>
+  </si>
+  <si>
+    <t>Scott Taylor</t>
+  </si>
+  <si>
+    <t>1. Exploit transparent content
+2. Monetize clicks-and-mortar web-readiness
+3. Exploit intuitive synergies</t>
+  </si>
+  <si>
+    <t>Scott has shown great improvement but needs to focus on timely completion of tasks.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Inverse intangible installation and Networked asymmetric throughput.</t>
+  </si>
+  <si>
+    <t>Tyler Garrett</t>
+  </si>
+  <si>
+    <t>1. Iterate extensible solutions</t>
+  </si>
+  <si>
+    <t>Tyler has shown great improvement but needs to focus on timely completion of tasks.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Te-oriented client-driven policy and Synergized 4thgeneration instruction set.</t>
+  </si>
+  <si>
+    <t>Laura Hmond</t>
+  </si>
+  <si>
+    <t>1. Utilize one-to-one models</t>
+  </si>
+  <si>
+    <t>Laura shows promise but should take more initiative in te projects.</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Reactive eco-centric matrices and Seless non-volatile open system.</t>
+  </si>
+  <si>
+    <t>Melanie Maynard</t>
+  </si>
+  <si>
+    <t>Melanie consistently delivers quality work. Keep it up!</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Switchable directional firmware and Integrated multi-state task-force.</t>
+  </si>
+  <si>
+    <t>Melanie Lee</t>
+  </si>
+  <si>
+    <t>1. Empower sticky mindshare</t>
+  </si>
+  <si>
+    <t>The completed courses focused on Quality-focused real-time help-desk and Te-oriented secondary parallelism.</t>
   </si>
 </sst>
 </file>
@@ -118,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,6 +398,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,7 +452,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -194,16 +462,44 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -425,10 +721,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -472,11 +768,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14">
+    <row r="2" spans="1:9" ht="178.5">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -485,7 +781,7 @@
       <c r="D2" s="5">
         <v>45573.75</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -494,53 +790,57 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="12">
         <v>4.8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5">
         <v>45604.375</v>
       </c>
       <c r="D3" s="5">
         <v>45604.75</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5">
         <v>45634.416666666664</v>
       </c>
       <c r="D4" s="5">
         <v>45634.770833333336</v>
       </c>
+      <c r="E4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5">
@@ -549,16 +849,16 @@
       <c r="D6" s="5">
         <v>45573.729166666664</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="14">
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -566,40 +866,46 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5">
         <v>45604.375</v>
       </c>
       <c r="D7" s="5">
         <v>45604.75</v>
       </c>
+      <c r="E7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5">
         <v>45634.416666666664</v>
       </c>
       <c r="D8" s="5">
         <v>45634.6875</v>
       </c>
+      <c r="E8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14">
+      <c r="E9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="115.5">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="5">
@@ -608,16 +914,16 @@
       <c r="D10" s="5">
         <v>45573.6875</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="14">
         <v>3.8</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -625,58 +931,2074 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5">
         <v>45604.375</v>
       </c>
       <c r="D11" s="5">
         <v>45604.708333333336</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5">
         <v>45634.416666666664</v>
       </c>
       <c r="D12" s="5">
         <v>45634.6875</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="1:9" ht="12.75">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="4"/>
     </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="19">
+        <v>4</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45480.300694444442</v>
+      </c>
+      <c r="D14" s="23">
+        <v>45480.717534722222</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3.8</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="22">
+        <v>45511.300694444442</v>
+      </c>
+      <c r="D15" s="23">
+        <v>45511.675868055558</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="22">
+        <v>45542.425694444442</v>
+      </c>
+      <c r="D16" s="23">
+        <v>45542.717534722222</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="22">
+        <v>45572.385416666664</v>
+      </c>
+      <c r="D17" s="23">
+        <v>45572.800868055558</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="22">
+        <v>45603.342361111114</v>
+      </c>
+      <c r="D18" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D19" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="22">
+        <v>45511.384027777778</v>
+      </c>
+      <c r="D20" s="23">
+        <v>45511.800868055558</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="22">
+        <v>45542.416666666664</v>
+      </c>
+      <c r="D21" s="23">
+        <v>45542.675868055558</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D22" s="23">
+        <v>45572.72934027778</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D23" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="19">
+        <v>6</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D24" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D25" s="23">
+        <v>45511.781423611108</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="22">
+        <v>45542.4375</v>
+      </c>
+      <c r="D26" s="23">
+        <v>45542.800868055558</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="22">
+        <v>45572.378472222219</v>
+      </c>
+      <c r="D27" s="23">
+        <v>45572.812673611108</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="22">
+        <v>45603.40625</v>
+      </c>
+      <c r="D28" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="19">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D29" s="23">
+        <v>45480.675868055558</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22">
+        <v>45511.384027777778</v>
+      </c>
+      <c r="D30" s="23">
+        <v>45511.717534722222</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="22">
+        <v>45542.416666666664</v>
+      </c>
+      <c r="D31" s="23">
+        <v>45542.749479166669</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D32" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D33" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" s="19">
+        <v>8</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="22">
+        <v>45480.384027777778</v>
+      </c>
+      <c r="D34" s="23">
+        <v>45480.76059027778</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="22">
+        <v>45511.40625</v>
+      </c>
+      <c r="D35" s="23">
+        <v>45511.771006944444</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="22">
+        <v>45542.375</v>
+      </c>
+      <c r="D36" s="23">
+        <v>45542.777951388889</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D37" s="23">
+        <v>45572.72934027778</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D38" s="23">
+        <v>45603.759201388886</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A39" s="19">
+        <v>9</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="22">
+        <v>45480.428472222222</v>
+      </c>
+      <c r="D39" s="23">
+        <v>45480.800868055558</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="22">
+        <v>45511.406944444447</v>
+      </c>
+      <c r="D40" s="23">
+        <v>45511.842534722222</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="22">
+        <v>45542.427083333336</v>
+      </c>
+      <c r="D41" s="23">
+        <v>45542.771006944444</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="22">
+        <v>45572.40625</v>
+      </c>
+      <c r="D42" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D43" s="23">
+        <v>45603.759201388886</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="19">
+        <v>10</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="22">
+        <v>45480.404861111114</v>
+      </c>
+      <c r="D44" s="23">
+        <v>45480.675868055558</v>
+      </c>
+      <c r="E44" s="15">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="22">
+        <v>45511.395833333336</v>
+      </c>
+      <c r="D45" s="23">
+        <v>45511.735590277778</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="22">
+        <v>45542.375</v>
+      </c>
+      <c r="D46" s="23">
+        <v>45542.749479166669</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D47" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D48" s="23">
+        <v>45603.634201388886</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A49" s="19">
+        <v>11</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D49" s="23">
+        <v>45480.800868055558</v>
+      </c>
+      <c r="E49" s="15">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D50" s="23">
+        <v>45511.812673611108</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="22">
+        <v>45542.420138888891</v>
+      </c>
+      <c r="D51" s="23">
+        <v>45542.759201388886</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="22">
+        <v>45572.413194444445</v>
+      </c>
+      <c r="D52" s="23">
+        <v>45572.812673611108</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D53" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A54" s="19">
+        <v>12</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="22">
+        <v>45480.440972222219</v>
+      </c>
+      <c r="D54" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E54" s="15">
+        <v>3</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D55" s="23">
+        <v>45511.789756944447</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="22">
+        <v>45542.407638888886</v>
+      </c>
+      <c r="D56" s="23">
+        <v>45542.7890625</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="22">
+        <v>45572.402777777781</v>
+      </c>
+      <c r="D57" s="23">
+        <v>45572.708506944444</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="22">
+        <v>45603.402083333334</v>
+      </c>
+      <c r="D58" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A59" s="19">
+        <v>13</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D59" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E59" s="15">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="22">
+        <v>45511.384027777778</v>
+      </c>
+      <c r="D60" s="23">
+        <v>45511.800868055558</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="22">
+        <v>45542.416666666664</v>
+      </c>
+      <c r="D61" s="23">
+        <v>45542.675868055558</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D62" s="23">
+        <v>45572.72934027778</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A63" s="19"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D63" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A64" s="19">
+        <v>14</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="22">
+        <v>45480.300694444442</v>
+      </c>
+      <c r="D64" s="23">
+        <v>45480.717534722222</v>
+      </c>
+      <c r="E64" s="17">
+        <v>4</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="22">
+        <v>45511.300694444442</v>
+      </c>
+      <c r="D65" s="23">
+        <v>45511.675868055558</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="22">
+        <v>45542.425694444442</v>
+      </c>
+      <c r="D66" s="23">
+        <v>45542.717534722222</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="22">
+        <v>45572.385416666664</v>
+      </c>
+      <c r="D67" s="23">
+        <v>45572.800868055558</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="22">
+        <v>45603.342361111114</v>
+      </c>
+      <c r="D68" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A69" s="19">
+        <v>15</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D69" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E69" s="15">
+        <v>3</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="19"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="22">
+        <v>45511.384027777778</v>
+      </c>
+      <c r="D70" s="23">
+        <v>45511.800868055558</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="19"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="22">
+        <v>45542.416666666664</v>
+      </c>
+      <c r="D71" s="23">
+        <v>45542.675868055558</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A72" s="19"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D72" s="23">
+        <v>45572.72934027778</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" s="19"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D73" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A74" s="19">
+        <v>16</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="22">
+        <v>45480.436805555553</v>
+      </c>
+      <c r="D74" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E74" s="15">
+        <v>4</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D75" s="23">
+        <v>45511.781423611108</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="22">
+        <v>45542.4375</v>
+      </c>
+      <c r="D76" s="23">
+        <v>45542.800868055558</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="22">
+        <v>45572.378472222219</v>
+      </c>
+      <c r="D77" s="23">
+        <v>45572.812673611108</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A78" s="19"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="22">
+        <v>45603.40625</v>
+      </c>
+      <c r="D78" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A79" s="19">
+        <v>17</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D79" s="23">
+        <v>45480.675868055558</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" s="19"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="22">
+        <v>45511.384027777778</v>
+      </c>
+      <c r="D80" s="23">
+        <v>45511.717534722222</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A81" s="19"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="22">
+        <v>45542.416666666664</v>
+      </c>
+      <c r="D81" s="23">
+        <v>45542.749479166669</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A82" s="19"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D82" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A83" s="19"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D83" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A84" s="19">
+        <v>18</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="22">
+        <v>45480.384027777778</v>
+      </c>
+      <c r="D84" s="23">
+        <v>45480.76059027778</v>
+      </c>
+      <c r="E84" s="15">
+        <v>3</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A85" s="19"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="22">
+        <v>45511.40625</v>
+      </c>
+      <c r="D85" s="23">
+        <v>45511.771006944444</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A86" s="19"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="22">
+        <v>45542.375</v>
+      </c>
+      <c r="D86" s="23">
+        <v>45542.777951388889</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D87" s="23">
+        <v>45572.72934027778</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="19"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D88" s="23">
+        <v>45603.759201388886</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" s="19">
+        <v>19</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="22">
+        <v>45480.428472222222</v>
+      </c>
+      <c r="D89" s="23">
+        <v>45480.800868055558</v>
+      </c>
+      <c r="E89" s="17">
+        <v>3</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="22">
+        <v>45511.406944444447</v>
+      </c>
+      <c r="D90" s="23">
+        <v>45511.842534722222</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="22">
+        <v>45542.427083333336</v>
+      </c>
+      <c r="D91" s="23">
+        <v>45542.771006944444</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="22">
+        <v>45572.40625</v>
+      </c>
+      <c r="D92" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="22">
+        <v>45603.374305555553</v>
+      </c>
+      <c r="D93" s="23">
+        <v>45603.759201388886</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" s="19">
+        <v>20</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="22">
+        <v>45480.404861111114</v>
+      </c>
+      <c r="D94" s="23">
+        <v>45480.675868055558</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="22">
+        <v>45511.395833333336</v>
+      </c>
+      <c r="D95" s="23">
+        <v>45511.735590277778</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="22">
+        <v>45542.375</v>
+      </c>
+      <c r="D96" s="23">
+        <v>45542.749479166669</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="22">
+        <v>45572.399305555555</v>
+      </c>
+      <c r="D97" s="23">
+        <v>45572.771006944444</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D98" s="23">
+        <v>45603.634201388886</v>
+      </c>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A99" s="19">
+        <v>21</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="22">
+        <v>45480.425694444442</v>
+      </c>
+      <c r="D99" s="23">
+        <v>45480.800868055558</v>
+      </c>
+      <c r="E99" s="15">
+        <v>1</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H99" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D100" s="23">
+        <v>45511.812673611108</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="22">
+        <v>45542.420138888891</v>
+      </c>
+      <c r="D101" s="23">
+        <v>45542.759201388886</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="22">
+        <v>45572.413194444445</v>
+      </c>
+      <c r="D102" s="23">
+        <v>45572.812673611108</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="22">
+        <v>45603.415972222225</v>
+      </c>
+      <c r="D103" s="23">
+        <v>45603.717534722222</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A104" s="19">
+        <v>22</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="22">
+        <v>45480.440972222219</v>
+      </c>
+      <c r="D104" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" s="15">
+        <v>3</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D105" s="23">
+        <v>45511.789756944447</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="22">
+        <v>45542.407638888886</v>
+      </c>
+      <c r="D106" s="23">
+        <v>45542.7890625</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="22">
+        <v>45572.402777777781</v>
+      </c>
+      <c r="D107" s="23">
+        <v>45572.708506944444</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="22">
+        <v>45603.402083333334</v>
+      </c>
+      <c r="D108" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="19">
+        <v>23</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="22">
+        <v>45480.440972222219</v>
+      </c>
+      <c r="D109" s="23">
+        <v>45480.759201388886</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="22">
+        <v>45511.425694444442</v>
+      </c>
+      <c r="D110" s="23">
+        <v>45511.789756944447</v>
+      </c>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="22">
+        <v>45542.407638888886</v>
+      </c>
+      <c r="D111" s="23">
+        <v>45542.7890625</v>
+      </c>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" s="19"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="22">
+        <v>45572.402777777781</v>
+      </c>
+      <c r="D112" s="23">
+        <v>45572.708506944444</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" s="19"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="22">
+        <v>45603.402083333334</v>
+      </c>
+      <c r="D113" s="23">
+        <v>45603.675868055558</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" s="19"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A115" s="19"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A116" s="19"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A117" s="19"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A118" s="19"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A119" s="19"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A120" s="19"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A121" s="19"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A122" s="19"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A123" s="19"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A124" s="19"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A125" s="19"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A126" s="19"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A127" s="19"/>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A128" s="19"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A129" s="19"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A130" s="19"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A131" s="19"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A132" s="19"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A133" s="19"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A134" s="19"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A135" s="19"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A136" s="19"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A137" s="19"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A138" s="19"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A139" s="19"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A140" s="19"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A141" s="19"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A142" s="19"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A143" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="152">
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="I84:I88"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
